--- a/Additional Libraries/Templates/Resources/SalesEntriesC.xlsx
+++ b/Additional Libraries/Templates/Resources/SalesEntriesC.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Invoice Date</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>Bank Charges</t>
+  </si>
+  <si>
+    <t>Custom Bank Ledger Name</t>
   </si>
 </sst>
 </file>
@@ -481,10 +484,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="SalesEntries"/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,12 +501,13 @@
     <col min="9" max="9" width="8.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="0" style="1" hidden="1"/>
-    <col min="14" max="16384" width="9.140625" style="1" hidden="1"/>
+    <col min="12" max="12" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -537,7 +541,10 @@
       <c r="K1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="11" t="s">
         <v>11</v>
       </c>
     </row>
